--- a/biology/Virologie/Piccovirales/Piccovirales.xlsx
+++ b/biology/Virologie/Piccovirales/Piccovirales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Parvoviridae, virus découverts dans les années 1960, appartient au Groupe II (virus à ADN à simple hélice). C’est la seule famille de l’ordre des Piccovirales et de la classe des Quintoviricetes. Cette famille comprend le plus petit virus connu et certains qui comptent parmi les plus résistants dans l'environnement. Ils affectent des vertébrés, mais aussi des insectes. 
 Les Parvoviridae ont un génome consistant en un ADN simple brin protégé par une capside en forme d'icosaèdre.
@@ -488,7 +500,7 @@
 La Parvovirose RA - 1 a initialement été associée à la polyarthrite rhumatoïde, mais on pense maintenant que c'était par erreur, à la suite d'une contamination de laboratoire. 
 Ces virus infectent des animaux (carnivores domestiques et sauvages, tels que chiens, chats, mustélidés, renards, loups, coyote, raton laveur, ours…) et l'Homme.
 Ces virus semblent présents dans le monde entier. 
-Les infections symptomatiques semblent plus fréquentes en fin de printemps et en début d'été[4].
+Les infections symptomatiques semblent plus fréquentes en fin de printemps et en début d'été.
 </t>
         </is>
       </c>
@@ -517,9 +529,11 @@
           <t>Virologie (genres dans les sous-familles)</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon ICTV                (14 février 2021)[5] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon ICTV                (14 février 2021) :
 sous-famille des Densovirinae
 Aquambidensovirus
 Blattambidensovirus
@@ -573,7 +587,9 @@
           <t>Transmission, cycle de vie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>L'ingestion de particules virales issues d'excréments d'un animal infecté semble être la cause d'infection la plus commune, plutôt que par contact direct avec un animal.
 Les parvoviroses sont résistantes (au froid notamment) et survivent plusieurs mois (voire plus d'un an) dans les milieux frais et humides et à l'abri de la lumière.
@@ -617,7 +633,9 @@
           <t>Indices et symptômes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>4 à 5 jours après l'exposition, les animaux infectés donnent des signes de pâleur (anémie due à la perte de sang), de déshydratation, dépression ou fatigue et manque d'appétit. Ce stade est suivi de fièvre, vomissements et de diarrhées aqueuses, pâteuses ou à consistance de gruau, nauséabondes et contenant souvent du sang et des muqueuses.
 Les animaux qui remangent dans les 3-4 jours après l'infection survivent habituellement. La plupart des animaux qui meurent de l'infection le font dans les 4-5 jours. Mais ils peuvent continuer à excréter le virus durant 15 jours au maximum.</t>
@@ -648,7 +666,9 @@
           <t>Viandes comestibles ?</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La viande de carnivores infectés (chien, chat, coyote…) n'est généralement pas consommée (avec des exceptions dans certains pays).
 Si un animal est suspecté d'être infecté par le parvovirus, il convient de veiller à éliminer ses intestins (où des particules infectieuses peuvent encore être présentes et contaminer l'environnement local).
@@ -682,14 +702,16 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Maladies animales
-Elles sont appelées
+          <t>Maladies animales</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Elles sont appelées
 parvovirose canine, parvovirose porcine et autres parvoviroses (canards, renards, ratons-laveurs)
 virus minute des chiens (MVC),
-typhus félin.
-Maladies humaines
-Les parvovirus sont soupçonnés d'avoir un rôle dans la Maladie de Minkowski-Chauffard ; ils sont la cause de la Fièvre à tiques du Colorado et de Myocardite virale.
-</t>
+typhus félin.</t>
         </is>
       </c>
     </row>
@@ -714,10 +736,49 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Les maladies</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Maladies humaines</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les parvovirus sont soupçonnés d'avoir un rôle dans la Maladie de Minkowski-Chauffard ; ils sont la cause de la Fièvre à tiques du Colorado et de Myocardite virale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Piccovirales</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Virologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Piccovirales</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Les parvoviroses sont confirmées par analyse des excréments ou lors d'autopsies de l'appareil digestif.</t>
         </is>
